--- a/Python_Projects/Mach_Probe/Mach_Probe_datasheet.xlsx
+++ b/Python_Projects/Mach_Probe/Mach_Probe_datasheet.xlsx
@@ -1,41 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20358"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUNU\Dropbox\SNUPI\Python_Projects\Mach_Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD458A2-E39D-4A75-8D4D-42B354DE242D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728E6E80-CE8B-4BBC-8A51-57679EDBCD06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="첫실험" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>I_Downstream [A]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+  <si>
+    <t>I_Downstream_ion [A]</t>
+  </si>
+  <si>
+    <t>I_Upstream_ion [A]</t>
+  </si>
+  <si>
+    <t>8.75 up</t>
+  </si>
+  <si>
+    <t>probe_pos</t>
+  </si>
+  <si>
+    <t>I_Upstream_electron [A]</t>
+  </si>
+  <si>
+    <t>Electron temperature [eV]</t>
+  </si>
+  <si>
+    <t>자기장체크</t>
+  </si>
+  <si>
+    <t>아크체크</t>
   </si>
   <si>
     <t>Electron density [m-3]</t>
   </si>
   <si>
-    <t>Electron temperature [eV]</t>
-  </si>
-  <si>
     <t>Ion temperature [eV]</t>
   </si>
   <si>
-    <t>I_Upstream [A]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>I_Downstream_electron [A]</t>
+  </si>
+  <si>
+    <t>I_Upstream_electron_density [m-3]</t>
+  </si>
+  <si>
+    <t>I_Downstream_electron_density [m-3]</t>
+  </si>
+  <si>
+    <t>Estimated M_ion</t>
+  </si>
+  <si>
+    <t>Estimated M_electron</t>
+  </si>
+  <si>
+    <t>4미리다운</t>
+  </si>
+  <si>
+    <t>b-field [A] pos = 8</t>
+  </si>
+  <si>
+    <t>빔 들어오는 성분때문에 n_e가 다르게 계산될 가능성있음.</t>
   </si>
 </sst>
 </file>
@@ -45,24 +85,22 @@
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,18 +119,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -100,11 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -407,190 +447,1104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>66200</v>
+      </c>
+      <c r="C2" s="3">
+        <v>68000</v>
+      </c>
+      <c r="D2">
+        <v>461</v>
+      </c>
+      <c r="E2">
+        <v>508</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8.43E+17</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7.98E+17</v>
+      </c>
+      <c r="H2">
+        <v>9.06</v>
+      </c>
+      <c r="I2">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="3">
+        <f>0.73*LN(B2/C2)</f>
+        <v>-1.9583886830195258E-2</v>
+      </c>
+      <c r="K2" s="3">
+        <f>0.73*LN(D2/E2)</f>
+        <v>-7.0870885344738316E-2</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>53400</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50500</v>
+      </c>
+      <c r="D3">
+        <v>563</v>
+      </c>
+      <c r="E3">
+        <v>516</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7.08E+17</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6.34E+17</v>
+      </c>
+      <c r="H3">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J14" si="0">0.73*LN(B3/C3)</f>
+        <v>4.0761309069929592E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K14" si="1">0.73*LN(D3/E3)</f>
+        <v>6.3636189740433141E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>33500</v>
+      </c>
+      <c r="C4" s="3">
+        <v>37700</v>
+      </c>
+      <c r="D4">
+        <v>416</v>
+      </c>
+      <c r="E4">
+        <v>375</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.84E+17</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.85E+17</v>
+      </c>
+      <c r="H4">
+        <v>7.14</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>-8.6223698604749377E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="1"/>
+        <v>7.574424103232226E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>22000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21800</v>
+      </c>
+      <c r="D5">
+        <v>235</v>
+      </c>
+      <c r="E5">
+        <v>209</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.68E+17</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.4E+17</v>
+      </c>
+      <c r="H5">
+        <v>5.36</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6667130011889043E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5593421390924004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>14400</v>
+      </c>
+      <c r="D6">
+        <v>121</v>
+      </c>
+      <c r="E6">
+        <v>161</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.72E+17</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.79E+17</v>
+      </c>
+      <c r="H6">
+        <v>3.25</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.13309473645958686</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.20849808815303703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8060</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7380</v>
+      </c>
+      <c r="D7">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <v>102</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.3E+17</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.02E+17</v>
+      </c>
+      <c r="H7">
+        <v>2.15</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>6.4342140071493761E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.1593251031946131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>15300</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7280</v>
+      </c>
+      <c r="D10">
+        <v>112</v>
+      </c>
+      <c r="E10">
+        <v>62.9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3.2E+17</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.26E+17</v>
+      </c>
+      <c r="H10">
+        <v>3.8</v>
+      </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5421870353185505</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42117547653975074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>15500</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7180</v>
+      </c>
+      <c r="D11">
+        <v>119</v>
+      </c>
+      <c r="E11">
+        <v>62.4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.15E+17</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.24E+17</v>
+      </c>
+      <c r="H11">
+        <v>3.91</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56176466783149959</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47125749894738761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>15700</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D12">
+        <v>125</v>
+      </c>
+      <c r="E12">
+        <v>63.4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.11E+17</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2.2E+17</v>
+      </c>
+      <c r="H12">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58965791120823285</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.49556040937715817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>15900</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6910</v>
+      </c>
+      <c r="D13">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>63.6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3.13E+17</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2.2E+17</v>
+      </c>
+      <c r="H13">
+        <v>4.17</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.60834511415602333</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52189231547993931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>15700</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6660</v>
+      </c>
+      <c r="D14">
+        <v>132</v>
+      </c>
+      <c r="E14">
+        <v>61.6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3.11E+17</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2.16E+17</v>
+      </c>
+      <c r="H14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6260050962954341</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.55636223799423457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K17" s="3">
+        <f>K10*$I$20</f>
+        <v>2105.8773826987535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="3">
+        <f t="shared" ref="K18:K21" si="2">K11*$I$20</f>
+        <v>2356.2874947369382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K19" s="3">
+        <f t="shared" si="2"/>
+        <v>2477.8020468857908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="2"/>
+        <v>2609.4615773996966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="2"/>
+        <v>2781.811189971173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K24" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="C7:F13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>51800</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E7">
+        <v>749</v>
+      </c>
+      <c r="F7">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>329000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4680</v>
+      </c>
+      <c r="E8">
+        <v>520</v>
+      </c>
+      <c r="F8">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>13300</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4680</v>
+      </c>
+      <c r="E9">
+        <v>273</v>
+      </c>
+      <c r="F9">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <v>6850</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4660</v>
+      </c>
+      <c r="E10">
+        <v>127</v>
+      </c>
+      <c r="F10">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>5170</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4640</v>
+      </c>
+      <c r="E11">
+        <v>97.4</v>
+      </c>
+      <c r="F11">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>4430</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4370</v>
+      </c>
+      <c r="E12">
+        <v>83.4</v>
+      </c>
+      <c r="F12">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>4180</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2560</v>
+      </c>
+      <c r="E13">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="F13">
+        <v>28.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="B2">
-        <v>1E-4</v>
-      </c>
-      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>51800</v>
+      </c>
+      <c r="C2" s="3">
+        <v>68000</v>
+      </c>
+      <c r="D2">
+        <v>749</v>
+      </c>
+      <c r="E2">
+        <v>508</v>
+      </c>
+      <c r="F2">
         <v>1E+17</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="H2">
+        <v>0.11</v>
+      </c>
+      <c r="I2" s="3">
+        <f>B2/C2</f>
+        <v>0.7617647058823529</v>
+      </c>
+      <c r="J2">
+        <f>D2/E2</f>
+        <v>1.4744094488188977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>32900</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50500</v>
+      </c>
+      <c r="D3">
+        <v>520</v>
+      </c>
+      <c r="E3">
+        <v>516</v>
+      </c>
+      <c r="F3">
+        <v>1E+17</v>
+      </c>
+      <c r="G3">
+        <v>4.7</v>
+      </c>
+      <c r="H3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1.55E-4</v>
-      </c>
-      <c r="B3">
-        <v>1.1E-4</v>
-      </c>
-      <c r="C3">
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I8" si="0">B3/C3</f>
+        <v>0.65148514851485151</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="1">D3/E3</f>
+        <v>1.0077519379844961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>13300</v>
+      </c>
+      <c r="C4" s="3">
+        <v>37700</v>
+      </c>
+      <c r="D4">
+        <v>273</v>
+      </c>
+      <c r="E4">
+        <v>375</v>
+      </c>
+      <c r="F4">
         <v>1E+17</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="B4">
-        <v>1.2E-4</v>
-      </c>
-      <c r="C4">
+      <c r="G4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H4">
+        <v>0.12</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35278514588859416</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6850</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21800</v>
+      </c>
+      <c r="D5">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>209</v>
+      </c>
+      <c r="F5">
         <v>1E+17</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1.65E-4</v>
-      </c>
-      <c r="B5">
-        <v>1.2999999999999999E-4</v>
-      </c>
-      <c r="C5">
+      <c r="G5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H5">
+        <v>0.12</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31422018348623854</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.60765550239234445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5170</v>
+      </c>
+      <c r="C6" s="3">
+        <v>14400</v>
+      </c>
+      <c r="D6">
+        <v>97.4</v>
+      </c>
+      <c r="E6">
+        <v>161</v>
+      </c>
+      <c r="F6">
         <v>1E+17</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1.7000000000000001E-4</v>
-      </c>
-      <c r="B6">
-        <v>1.3999999999999999E-4</v>
-      </c>
-      <c r="C6">
+      <c r="G6">
+        <v>3.8</v>
+      </c>
+      <c r="H6">
+        <v>0.125</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.60496894409937896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4430</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7380</v>
+      </c>
+      <c r="D7">
+        <v>83.4</v>
+      </c>
+      <c r="E7">
+        <v>102</v>
+      </c>
+      <c r="F7">
         <v>1E+17</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1.75E-4</v>
-      </c>
-      <c r="B7">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="C7">
+      <c r="G7">
+        <v>3.5</v>
+      </c>
+      <c r="H7">
+        <v>0.13</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.60027100271002709</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.8176470588235295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4180</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5570</v>
+      </c>
+      <c r="D8">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E8">
+        <v>84.2</v>
+      </c>
+      <c r="F8">
         <v>1E+17</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="B8">
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="C8">
-        <v>1E+17</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1.85E-4</v>
-      </c>
-      <c r="B9">
-        <v>1.7000000000000001E-4</v>
-      </c>
-      <c r="C9">
-        <v>1E+17</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="B10">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="C10">
-        <v>1E+17</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0.1</v>
-      </c>
+      <c r="G8">
+        <v>3.2</v>
+      </c>
+      <c r="H8">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75044883303411136</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.84798099762470314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f>0.73*LN(I2)</f>
+        <v>-0.19864581581478866</v>
+      </c>
+      <c r="I13">
+        <f>0.73*LN(J2)</f>
+        <v>0.28342800123527845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" ref="H14:I19" si="2">0.73*LN(I3)</f>
+        <v>-0.31280549531229118</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>5.6370936485545323E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>-0.76058412323516755</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>-0.23174158847337931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>-0.84509276179026382</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>-0.36364743081954043</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>-0.74777952818498039</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>-0.36688205266526058</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>-0.37257305982539596</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>-0.14696688786128601</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>-0.20957117940384518</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>-0.12037484788900187</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G20" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="3">
+        <f>I13*$G$20</f>
+        <v>1417.1400061763923</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="3">
+        <f t="shared" ref="I23:I28" si="3">I14*$G$20</f>
+        <v>28.185468242772661</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="3">
+        <f t="shared" si="3"/>
+        <v>-1158.7079423668965</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="3">
+        <f t="shared" si="3"/>
+        <v>-1818.2371540977022</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="3">
+        <f>I17*$G$20</f>
+        <v>-1834.4102633263028</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="3">
+        <f t="shared" si="3"/>
+        <v>-734.83443930643</v>
+      </c>
+      <c r="J27" s="3">
+        <f>AVERAGE(I22:I27)</f>
+        <v>-683.47738744636115</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="3">
+        <f t="shared" si="3"/>
+        <v>-601.87423944500938</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
